--- a/biology/Zoologie/Cyphotilapia_gibberosa/Cyphotilapia_gibberosa.xlsx
+++ b/biology/Zoologie/Cyphotilapia_gibberosa/Cyphotilapia_gibberosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cypho à tête noire ou  Cypho à 5 barres (Cyphotilapia gibberosa) est une espèce de poisson de la famille des cichlidés, l'une des deux espèces du genre Cyphotilapia. Originaire du Lac Tanganyika en Afrique de l'Est, il a été décrit en 2003 près de 100 ans après son congénère, C. frontosa[1]. Cette espèce est une couveuse de bouche maternelle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cypho à tête noire ou  Cypho à 5 barres (Cyphotilapia gibberosa) est une espèce de poisson de la famille des cichlidés, l'une des deux espèces du genre Cyphotilapia. Originaire du Lac Tanganyika en Afrique de l'Est, il a été décrit en 2003 près de 100 ans après son congénère, C. frontosa. Cette espèce est une couveuse de bouche maternelle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyphotilapia gibberosa est endémique du Lac Tanganyika en Afrique de l'Est comme C. frontosa[3]. On le trouve dans la moitié sud de ce lac, tandis que C. frontosa habite la moitié nord. Le spécimen type de C. gibberosa a été capturé à une profondeur de 34 m et de grands bancs se trouvent à 30 - 40 m ou plus profondément[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyphotilapia gibberosa est endémique du Lac Tanganyika en Afrique de l'Est comme C. frontosa. On le trouve dans la moitié sud de ce lac, tandis que C. frontosa habite la moitié nord. Le spécimen type de C. gibberosa a été capturé à une profondeur de 34 m et de grands bancs se trouvent à 30 - 40 m ou plus profondément.
 </t>
         </is>
       </c>
